--- a/app/erp/module/prop_report_rent_inv/excel/prop_report_rent_inv_template_v01.xlsx
+++ b/app/erp/module/prop_report_rent_inv/excel/prop_report_rent_inv_template_v01.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\yeelim_erp_uat\app\erp\module\prop_report_rent_inv\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="21075" windowHeight="9525"/>
   </bookViews>
@@ -635,7 +640,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -675,26 +680,23 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="26" fillId="33" borderId="10" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -800,7 +802,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -835,7 +837,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1050,7 +1052,7 @@
   <dimension ref="A1:K2801"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1080,39 +1082,39 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
-      <c r="K1" s="15"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="14"/>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="15"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="14"/>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="15"/>
+      <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
@@ -1125,7 +1127,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="16"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -1158,7 +1160,7 @@
       <c r="J5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1172,7 +1174,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="18"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="13"/>
@@ -1184,7 +1186,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="18"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -1196,7 +1198,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="18"/>
+      <c r="K8" s="19"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
@@ -1208,7 +1210,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="18"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="13"/>
@@ -1220,7 +1222,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="18"/>
+      <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" s="10"/>
